--- a/StateOfPractice/Papers/LatticeBoltz_SOP-arXiv/LBM_Figures_Updated.xlsx
+++ b/StateOfPractice/Papers/LatticeBoltz_SOP-arXiv/LBM_Figures_Updated.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Understandability" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Visibility &amp; Transparency" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -110,11 +110,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -133,19 +134,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -192,7 +188,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -201,11 +197,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -281,7 +273,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart208.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -311,11 +303,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -493,25 +489,26 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="16967247"/>
-        <c:axId val="79851087"/>
+        <c:axId val="90789139"/>
+        <c:axId val="59213230"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="16967247"/>
+        <c:axId val="90789139"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -520,20 +517,23 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79851087"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="59213230"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79851087"/>
+        <c:axId val="59213230"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,11 +547,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -567,15 +573,16 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -584,13 +591,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16967247"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="90789139"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -616,7 +626,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart209.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -646,11 +656,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -828,25 +842,26 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="37170596"/>
-        <c:axId val="1220618"/>
+        <c:axId val="7438649"/>
+        <c:axId val="8363717"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37170596"/>
+        <c:axId val="7438649"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15840">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -855,12 +870,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1220618"/>
+        <c:crossAx val="8363717"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -868,9 +886,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1220618"/>
+        <c:axId val="8363717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.105"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -881,12 +901,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -902,15 +928,16 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="15840">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -919,12 +946,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37170596"/>
+        <c:crossAx val="7438649"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -951,7 +981,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart210.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -981,11 +1011,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1163,25 +1197,26 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="312602"/>
-        <c:axId val="4816625"/>
+        <c:axId val="58535850"/>
+        <c:axId val="85493424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="312602"/>
+        <c:axId val="58535850"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -1190,12 +1225,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4816625"/>
+        <c:crossAx val="85493424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1203,9 +1241,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4816625"/>
+        <c:axId val="85493424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.16"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1216,12 +1256,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -1237,15 +1283,16 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -1254,14 +1301,18 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312602"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="58535850"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.02"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1286,7 +1337,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart211.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1316,11 +1367,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1498,25 +1553,26 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="22132738"/>
-        <c:axId val="51966188"/>
+        <c:axId val="15254427"/>
+        <c:axId val="12562859"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22132738"/>
+        <c:axId val="15254427"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -1525,12 +1581,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51966188"/>
+        <c:crossAx val="12562859"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1538,9 +1597,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51966188"/>
+        <c:axId val="12562859"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.08"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1552,11 +1613,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -1572,15 +1639,16 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -1589,14 +1657,18 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22132738"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="15254427"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.01"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1621,7 +1693,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart212.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1651,11 +1723,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1833,25 +1909,26 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="40313047"/>
-        <c:axId val="71338943"/>
+        <c:axId val="43856175"/>
+        <c:axId val="94874227"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40313047"/>
+        <c:axId val="43856175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -1860,12 +1937,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71338943"/>
+        <c:crossAx val="94874227"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1873,9 +1953,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71338943"/>
+        <c:axId val="94874227"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.06"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1887,11 +1969,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -1907,15 +1995,16 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -1924,14 +2013,18 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40313047"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="43856175"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.01"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1956,7 +2049,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart213.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1986,11 +2079,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2168,25 +2265,26 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="39794072"/>
-        <c:axId val="95249569"/>
+        <c:axId val="42387365"/>
+        <c:axId val="91508886"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39794072"/>
+        <c:axId val="42387365"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -2195,12 +2293,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95249569"/>
+        <c:crossAx val="91508886"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2208,7 +2309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95249569"/>
+        <c:axId val="91508886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,11 +2323,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -2242,15 +2349,16 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -2259,12 +2367,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39794072"/>
+        <c:crossAx val="42387365"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2291,7 +2402,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart214.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2321,11 +2432,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2503,25 +2618,26 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="37603790"/>
-        <c:axId val="51822219"/>
+        <c:axId val="59473540"/>
+        <c:axId val="9739873"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37603790"/>
+        <c:axId val="59473540"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -2530,12 +2646,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51822219"/>
+        <c:crossAx val="9739873"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2543,9 +2662,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51822219"/>
+        <c:axId val="9739873"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2557,11 +2678,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -2577,15 +2704,16 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -2594,14 +2722,18 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37603790"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="59473540"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.02"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2626,7 +2758,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart215.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2656,11 +2788,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2838,25 +2974,26 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="74342315"/>
-        <c:axId val="77353730"/>
+        <c:axId val="19751654"/>
+        <c:axId val="67665690"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74342315"/>
+        <c:axId val="19751654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -2865,12 +3002,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77353730"/>
+        <c:crossAx val="67665690"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2878,9 +3018,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77353730"/>
+        <c:axId val="67665690"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.125"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2892,11 +3034,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -2912,15 +3060,16 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -2929,14 +3078,18 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74342315"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="19751654"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.025"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2961,7 +3114,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart216.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2991,11 +3144,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3173,25 +3330,26 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="12825193"/>
-        <c:axId val="27852492"/>
+        <c:axId val="14006056"/>
+        <c:axId val="11840983"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="12825193"/>
+        <c:axId val="14006056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -3200,12 +3358,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27852492"/>
+        <c:crossAx val="11840983"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3213,9 +3374,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27852492"/>
+        <c:axId val="11840983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3227,11 +3389,17 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -3247,15 +3415,16 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -3264,13 +3433,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12825193"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="14006056"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -3296,7 +3468,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart217.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3326,11 +3498,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3508,25 +3684,26 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="43863484"/>
-        <c:axId val="16604643"/>
+        <c:axId val="79749371"/>
+        <c:axId val="62398719"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43863484"/>
+        <c:axId val="79749371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -3535,12 +3712,15 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16604643"/>
+        <c:crossAx val="62398719"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3548,9 +3728,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16604643"/>
+        <c:axId val="62398719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3561,12 +3743,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>AHP Score</a:t>
@@ -3582,15 +3770,16 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln w="18360">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
@@ -3599,14 +3788,18 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43863484"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="79749371"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.04"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3637,23 +3830,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>803160</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>783720</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>801360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="0" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2428560" y="631080"/>
-        <a:ext cx="7295760" cy="3241800"/>
+        <a:off x="2426040" y="315720"/>
+        <a:ext cx="11359800" cy="3470040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3671,24 +3864,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>809280</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:colOff>809640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>172080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>793440</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>801360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2434680" y="609120"/>
-        <a:ext cx="7299360" cy="3239640"/>
+        <a:off x="2432520" y="336960"/>
+        <a:ext cx="11353320" cy="3480480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3706,24 +3899,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>809640</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>806400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>803520</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>164160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="1" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2435040" y="370800"/>
-        <a:ext cx="7309080" cy="3239640"/>
+        <a:off x="2429280" y="328320"/>
+        <a:ext cx="11378520" cy="3467880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3741,24 +3934,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>799560</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:colOff>802080</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>803520</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>801360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2424960" y="380520"/>
-        <a:ext cx="7319160" cy="3239640"/>
+        <a:off x="2424960" y="338400"/>
+        <a:ext cx="11360880" cy="3467880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3776,24 +3969,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>799560</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:colOff>809640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>803520</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>801360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2424960" y="504720"/>
-        <a:ext cx="7319160" cy="3239640"/>
+        <a:off x="2432520" y="324360"/>
+        <a:ext cx="11353320" cy="3480840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3810,25 +4003,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>797760</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>793440</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>801360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2444760" y="351360"/>
-        <a:ext cx="7289280" cy="3239640"/>
+        <a:off x="2420640" y="336600"/>
+        <a:ext cx="11365200" cy="3467880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3845,25 +4038,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>26280</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>808200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>803520</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>801360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2464560" y="542520"/>
-        <a:ext cx="7279560" cy="3239640"/>
+        <a:off x="2431080" y="323280"/>
+        <a:ext cx="11354760" cy="3479040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3882,23 +4075,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>809640</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>783720</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>801360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2435040" y="514080"/>
-        <a:ext cx="7289280" cy="3239640"/>
+        <a:off x="2432520" y="337320"/>
+        <a:ext cx="11353320" cy="3467880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3916,24 +4109,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>779760</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:colOff>809280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>803520</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>801360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2405160" y="466200"/>
-        <a:ext cx="7338960" cy="3239640"/>
+        <a:off x="2432160" y="324000"/>
+        <a:ext cx="11353680" cy="3467880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3951,24 +4144,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>779760</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>102600</xdr:rowOff>
+      <xdr:colOff>809280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>803520</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>801360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2405160" y="427680"/>
-        <a:ext cx="7338960" cy="3239640"/>
+        <a:off x="2432160" y="335880"/>
+        <a:ext cx="11353680" cy="3463200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3988,13 +4181,13 @@
   </sheetPr>
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4002,7 +4195,7 @@
         <v>0.076</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4010,39 +4203,39 @@
         <v>0.076</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.067</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.061</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.058</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.052</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4050,7 +4243,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4058,23 +4251,23 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4082,7 +4275,7 @@
         <v>0.045</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4090,23 +4283,23 @@
         <v>0.044</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.042</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.041</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4114,47 +4307,47 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.028</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.026</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.025</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.025</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.024</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -4162,24 +4355,24 @@
         <v>0.023</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.019</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -4205,13 +4398,13 @@
   </sheetPr>
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4219,23 +4412,23 @@
         <v>0.196</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.112</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.076</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4243,47 +4436,47 @@
         <v>0.074</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.058</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.042</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.042</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.041</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -4291,31 +4484,31 @@
         <v>0.039</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.033</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.029</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.026</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -4323,31 +4516,31 @@
         <v>0.025</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.025</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.024</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -4355,31 +4548,31 @@
         <v>0.016</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.015</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.013</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.012</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -4387,7 +4580,7 @@
         <v>0.011</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -4395,7 +4588,7 @@
         <v>0.011</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -4423,12 +4616,12 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4436,23 +4629,23 @@
         <v>0.101</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.101</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.101</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4460,47 +4653,47 @@
         <v>0.096</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.077</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.066</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.049</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.045</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4508,7 +4701,7 @@
         <v>0.045</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4516,31 +4709,31 @@
         <v>0.039</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.033</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.025</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -4548,23 +4741,23 @@
         <v>0.025</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.023</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.016</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -4572,7 +4765,7 @@
         <v>0.016</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -4580,7 +4773,7 @@
         <v>0.014</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -4588,32 +4781,32 @@
         <v>0.012</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.012</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.008</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -4640,12 +4833,12 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4653,7 +4846,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4661,39 +4854,39 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.059</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.053</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.052</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -4701,39 +4894,39 @@
         <v>0.051</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.051</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.048</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.046</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -4741,23 +4934,23 @@
         <v>0.039</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.032</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.025</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -4765,15 +4958,15 @@
         <v>0.023</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.022</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -4781,7 +4974,7 @@
         <v>0.018</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -4789,31 +4982,31 @@
         <v>0.013</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.011</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.011</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -4821,16 +5014,16 @@
         <v>0.009</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.009</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -4856,13 +5049,13 @@
   </sheetPr>
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4870,7 +5063,7 @@
         <v>0.079</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4878,23 +5071,23 @@
         <v>0.079</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.079</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.079</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -4902,23 +5095,23 @@
         <v>0.079</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.079</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.079</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4926,7 +5119,7 @@
         <v>0.079</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -4934,31 +5127,31 @@
         <v>0.074</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.058</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.057</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.037</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -4966,7 +5159,7 @@
         <v>0.033</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -4974,39 +5167,39 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.023</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.007</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.007</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.007</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -5014,40 +5207,40 @@
         <v>0.006</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.006</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.006</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.006</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.005</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -5073,13 +5266,13 @@
   </sheetPr>
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N40" activeCellId="0" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -5087,7 +5280,7 @@
         <v>0.059</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -5095,39 +5288,39 @@
         <v>0.059</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.059</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.059</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.059</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.059</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -5135,15 +5328,15 @@
         <v>0.059</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.057</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5151,47 +5344,47 @@
         <v>0.055</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.055</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.051</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.047</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.046</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.042</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -5199,7 +5392,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -5207,7 +5400,7 @@
         <v>0.039</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -5215,31 +5408,31 @@
         <v>0.039</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.039</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.038</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.011</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -5247,24 +5440,24 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.009</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.005</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -5290,13 +5483,13 @@
   </sheetPr>
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -5304,7 +5497,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5312,15 +5505,15 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.093</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -5328,15 +5521,15 @@
         <v>0.086</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5344,7 +5537,7 @@
         <v>0.063</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -5352,31 +5545,31 @@
         <v>0.062</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.045</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.044</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -5384,7 +5577,7 @@
         <v>0.043</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -5392,87 +5585,87 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.025</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.025</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.019</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.018</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.017</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.016</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.015</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.011</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.007</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -5480,8 +5673,8 @@
         <v>0.006</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -5508,12 +5701,12 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5521,15 +5714,15 @@
         <v>0.099</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.097</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -5537,7 +5730,7 @@
         <v>0.086</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -5545,39 +5738,39 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.073</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.062</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.059</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -5585,23 +5778,23 @@
         <v>0.045</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.043</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.042</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -5609,31 +5802,31 @@
         <v>0.041</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.035</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.025</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.021</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -5641,47 +5834,47 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.017</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.014</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.012</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.012</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.011</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -5689,7 +5882,7 @@
         <v>0.011</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -5697,8 +5890,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -5725,12 +5918,12 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5738,15 +5931,15 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.122</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -5754,15 +5947,15 @@
         <v>0.085</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.081</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5770,7 +5963,7 @@
         <v>0.076</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5778,31 +5971,31 @@
         <v>0.076</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.064</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.061</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.044</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -5810,7 +6003,7 @@
         <v>0.039</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -5818,39 +6011,39 @@
         <v>0.031</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.024</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.022</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.021</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.021</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -5858,23 +6051,23 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.019</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.017</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -5882,40 +6075,40 @@
         <v>0.015</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.013</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.007</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.007</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.007</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -5942,36 +6135,36 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.091</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.079</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -5979,15 +6172,15 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.057</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5995,15 +6188,15 @@
         <v>0.054</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.052</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6011,15 +6204,15 @@
         <v>0.052</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.045</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -6027,7 +6220,7 @@
         <v>0.043</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -6035,47 +6228,47 @@
         <v>0.043</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.042</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.032</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.032</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.028</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.026</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -6083,15 +6276,15 @@
         <v>0.024</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.023</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -6099,15 +6292,15 @@
         <v>0.021</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.019</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -6115,24 +6308,24 @@
         <v>0.019</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.015</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.015</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="0" t="n">

--- a/StateOfPractice/Papers/LatticeBoltz_SOP-arXiv/LBM_Figures_Updated.xlsx
+++ b/StateOfPractice/Papers/LatticeBoltz_SOP-arXiv/LBM_Figures_Updated.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermichalski/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6848E68B-A7C7-9645-8862-C087EEACAC26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24100" windowHeight="12860" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Overall" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Installability" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Correctness &amp; Verifiability" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Reliability" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Robustness" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Usability" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Maintainability" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Reusability" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Understandability" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Visibility &amp; Transparency" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Overall" sheetId="1" r:id="rId1"/>
+    <sheet name="Installability" sheetId="2" r:id="rId2"/>
+    <sheet name="Correctness &amp; Verifiability" sheetId="3" r:id="rId3"/>
+    <sheet name="Reliability" sheetId="4" r:id="rId4"/>
+    <sheet name="Robustness" sheetId="5" r:id="rId5"/>
+    <sheet name="Usability" sheetId="6" r:id="rId6"/>
+    <sheet name="Maintainability" sheetId="7" r:id="rId7"/>
+    <sheet name="Reusability" sheetId="8" r:id="rId8"/>
+    <sheet name="Understandability" sheetId="9" r:id="rId9"/>
+    <sheet name="Visibility &amp; Transparency" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -31,119 +36,88 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="24">
   <si>
-    <t xml:space="preserve">ESPResSo</t>
+    <t>ESPResSo</t>
   </si>
   <si>
-    <t xml:space="preserve">Ludwig</t>
+    <t>Ludwig</t>
   </si>
   <si>
-    <t xml:space="preserve">Palabos</t>
+    <t>Palabos</t>
   </si>
   <si>
-    <t xml:space="preserve">OpenLB</t>
+    <t>OpenLB</t>
   </si>
   <si>
-    <t xml:space="preserve">LUMA</t>
+    <t>LUMA</t>
   </si>
   <si>
-    <t xml:space="preserve">pyLBM</t>
+    <t>pyLBM</t>
   </si>
   <si>
-    <t xml:space="preserve">DL_MESO (LBE)</t>
+    <t>DL_MESO (LBE)</t>
   </si>
   <si>
-    <t xml:space="preserve">Musubi</t>
+    <t>Musubi</t>
   </si>
   <si>
-    <t xml:space="preserve">Sailfish</t>
+    <t>Sailfish</t>
   </si>
   <si>
-    <t xml:space="preserve">waLBerla</t>
+    <t>waLBerla</t>
   </si>
   <si>
-    <t xml:space="preserve">laboetie</t>
+    <t>laboetie</t>
   </si>
   <si>
-    <t xml:space="preserve">TCLB</t>
+    <t>TCLB</t>
   </si>
   <si>
-    <t xml:space="preserve">MechSys</t>
+    <t>MechSys</t>
   </si>
   <si>
-    <t xml:space="preserve">lettuce</t>
+    <t>lettuce</t>
   </si>
   <si>
-    <t xml:space="preserve">ESPResSo++</t>
+    <t>ESPResSo++</t>
   </si>
   <si>
-    <t xml:space="preserve">MP-LABS</t>
+    <t>MP-LABS</t>
   </si>
   <si>
-    <t xml:space="preserve">SunlightLB</t>
+    <t>SunlightLB</t>
   </si>
   <si>
-    <t xml:space="preserve">LB3D</t>
+    <t>LB3D</t>
   </si>
   <si>
-    <t xml:space="preserve">LIMBES</t>
+    <t>LIMBES</t>
   </si>
   <si>
-    <t xml:space="preserve">LB2D-Prime</t>
+    <t>LB2D-Prime</t>
   </si>
   <si>
-    <t xml:space="preserve">HemeLB</t>
+    <t>HemeLB</t>
   </si>
   <si>
-    <t xml:space="preserve">lbmpy</t>
+    <t>lbmpy</t>
   </si>
   <si>
-    <t xml:space="preserve">LB3D-Prime</t>
+    <t>LB3D-Prime</t>
   </si>
   <si>
-    <t xml:space="preserve">LatBo.jl</t>
+    <t>LatBo.jl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,7 +129,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -163,53 +137,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -268,18 +210,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -297,18 +258,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -317,8 +286,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -412,22 +382,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.076</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.076</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.067</c:v>
+                  <c:v>6.7000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.061</c:v>
+                  <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.058</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.052</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.05</c:v>
@@ -436,59 +406,71 @@
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.045</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.044</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.042</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.041</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.028</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.026</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.024</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.019</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.015</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B56-DF45-90EC-A329EDD7A90F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="90789139"/>
         <c:axId val="59213230"/>
       </c:barChart>
@@ -516,13 +498,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59213230"/>
@@ -546,7 +529,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -554,7 +537,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -590,13 +573,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="90789139"/>
@@ -606,33 +590,40 @@
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -650,18 +641,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -670,8 +669,395 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Visibility &amp; Transparency'!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Ludwig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Palabos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LUMA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ESPResSo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP-LABS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenLB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LatBo.jl</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>pyLBM</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>waLBerla</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TCLB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>lettuce</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lbmpy</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Sailfish</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>HemeLB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>LIMBES</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>LB3D-Prime</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>LB2D-Prime</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>DL_MESO (LBE)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>MechSys</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>LB3D</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>SunlightLB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ESPResSo++</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>laboetie</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Musubi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Visibility &amp; Transparency'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EEC-EA41-8B11-84ECA0E8539F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="79749371"/>
+        <c:axId val="62398719"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="79749371"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="18360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62398719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62398719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>AHP Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="18360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79749371"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.04"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -765,83 +1151,95 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.101</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.101</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.101</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.096</c:v>
+                  <c:v>9.6000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.077</c:v>
+                  <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.066</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.049</c:v>
+                  <c:v>4.9000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.045</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.045</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.033</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.016</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.016</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.014</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.012</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.012</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.008</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0492-D34B-9824-AD10115D7483}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="7438649"/>
         <c:axId val="8363717"/>
       </c:barChart>
@@ -869,13 +1267,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="8363717"/>
@@ -901,7 +1300,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -909,7 +1308,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -945,13 +1344,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="7438649"/>
@@ -962,32 +1362,41 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1005,18 +1414,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1025,8 +1442,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1129,74 +1547,86 @@
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.053</c:v>
+                  <c:v>5.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.052</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.048</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.046</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.032</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.022</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.018</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.013</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.011</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.011</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.009</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.009</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46B5-2049-870E-E2B883B3F7B6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="58535850"/>
         <c:axId val="85493424"/>
       </c:barChart>
@@ -1224,13 +1654,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="85493424"/>
@@ -1256,7 +1687,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1264,7 +1695,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1300,13 +1731,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="58535850"/>
@@ -1317,33 +1749,40 @@
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1361,18 +1800,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1381,8 +1828,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1476,83 +1924,95 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.074</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.058</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.057</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.037</c:v>
+                  <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.033</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.005</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.005</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1304-F749-93FC-E97239A57164}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="15254427"/>
         <c:axId val="12562859"/>
       </c:barChart>
@@ -1580,13 +2040,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="12562859"/>
@@ -1612,7 +2073,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1620,7 +2081,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1656,13 +2117,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="15254427"/>
@@ -1673,33 +2135,40 @@
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1717,18 +2186,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1737,8 +2214,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1832,83 +2310,95 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.057</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.055</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.055</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.046</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.042</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.038</c:v>
+                  <c:v>3.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.011</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.009</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.005</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.004</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFDF-0C4B-AEA0-6BAE517EA52F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="43856175"/>
         <c:axId val="94874227"/>
       </c:barChart>
@@ -1936,13 +2426,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="94874227"/>
@@ -1968,7 +2459,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1976,7 +2467,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2012,13 +2503,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="43856175"/>
@@ -2029,33 +2521,40 @@
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2073,18 +2572,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2093,8 +2600,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2194,31 +2702,31 @@
                   <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.093</c:v>
+                  <c:v>9.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.086</c:v>
+                  <c:v>8.5999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.063</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.062</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.045</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.044</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.03</c:v>
@@ -2227,44 +2735,56 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.019</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.018</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.017</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.016</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.015</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.011</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C6D-404E-84D0-AAADFC2C5DC7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="42387365"/>
         <c:axId val="91508886"/>
       </c:barChart>
@@ -2292,13 +2812,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="91508886"/>
@@ -2322,7 +2843,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2330,7 +2851,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2366,13 +2887,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="42387365"/>
@@ -2382,33 +2904,40 @@
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2426,18 +2955,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2446,8 +2983,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2541,13 +3079,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.099</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.097</c:v>
+                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.086</c:v>
+                  <c:v>8.5999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.08</c:v>
@@ -2556,68 +3094,80 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.073</c:v>
+                  <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.062</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.059</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.045</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.042</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.041</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.035</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.025</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.021</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.017</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.014</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.012</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.012</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.011</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.011</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.008</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CF3-CD45-96AD-F289A254DF09}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="59473540"/>
         <c:axId val="9739873"/>
       </c:barChart>
@@ -2645,13 +3195,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="9739873"/>
@@ -2677,7 +3228,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2685,7 +3236,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2721,13 +3272,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59473540"/>
@@ -2738,33 +3290,40 @@
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2782,18 +3341,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2802,8 +3369,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2903,77 +3471,89 @@
                   <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.085</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.081</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.076</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.076</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.064</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.061</c:v>
+                  <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.044</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.031</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.024</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.022</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.021</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.021</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.019</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.017</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.015</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.013</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.007</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.006</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A4B-8D48-ACCA-74D524FA289E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="19751654"/>
         <c:axId val="67665690"/>
       </c:barChart>
@@ -3001,13 +3581,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67665690"/>
@@ -3033,7 +3614,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3041,7 +3622,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3077,50 +3658,58 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="19751654"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.025"/>
+        <c:majorUnit val="2.5000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -3138,18 +3727,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3158,8 +3755,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -3256,80 +3854,92 @@
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.091</c:v>
+                  <c:v>9.0999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.057</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.054</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.052</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.052</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.045</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.042</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.032</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.032</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.028</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.026</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.024</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.023</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.021</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.019</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.019</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.015</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.015</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.009</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B00-1643-B3C7-0971F12A0DCB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
         <c:axId val="14006056"/>
         <c:axId val="11840983"/>
       </c:barChart>
@@ -3357,13 +3967,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="11840983"/>
@@ -3388,7 +3999,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3396,7 +4007,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-CA" sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3432,13 +4043,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="14006056"/>
@@ -3448,384 +4060,32 @@
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Visibility &amp; Transparency'!$A$2:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>Ludwig</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Palabos</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LUMA</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ESPResSo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP-LABS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>OpenLB</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LatBo.jl</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>pyLBM</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>waLBerla</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>TCLB</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>lettuce</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>lbmpy</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sailfish</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>HemeLB</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>LIMBES</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>LB3D-Prime</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>LB2D-Prime</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>DL_MESO (LBE)</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>MechSys</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>LB3D</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>SunlightLB</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ESPResSo++</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>laboetie</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Musubi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Visibility &amp; Transparency'!$B$2:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0.196</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.076</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.074</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.058</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.042</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.042</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.033</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.029</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.026</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.024</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.015</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.013</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.012</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="79749371"/>
-        <c:axId val="62398719"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="79749371"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="18360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="62398719"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="62398719"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" lang="en-CA" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>AHP Score</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="18360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="79749371"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.04"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3839,14 +4099,20 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2426040" y="315720"/>
-        <a:ext cx="11359800" cy="3470040"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3860,7 +4126,7 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3874,14 +4140,20 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2432520" y="336960"/>
-        <a:ext cx="11353320" cy="3480480"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3895,7 +4167,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3909,14 +4181,20 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>164160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2429280" y="328320"/>
-        <a:ext cx="11378520" cy="3467880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3930,7 +4208,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3944,14 +4222,20 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2424960" y="338400"/>
-        <a:ext cx="11360880" cy="3467880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3965,7 +4249,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3979,14 +4263,20 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2432520" y="324360"/>
-        <a:ext cx="11353320" cy="3480840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4000,7 +4290,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4014,14 +4304,20 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2420640" y="336600"/>
-        <a:ext cx="11365200" cy="3467880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4035,7 +4331,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4049,14 +4345,20 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2431080" y="323280"/>
-        <a:ext cx="11354760" cy="3479040"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4070,7 +4372,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4084,14 +4386,20 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2432520" y="337320"/>
-        <a:ext cx="11353320" cy="3467880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4105,7 +4413,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4119,14 +4427,20 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2432160" y="324000"/>
-        <a:ext cx="11353680" cy="3467880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4140,7 +4454,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4154,14 +4468,20 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2432160" y="335880"/>
-        <a:ext cx="11353680" cy="3463200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4174,216 +4494,507 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.067</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.061</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.052</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.042</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.041</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.015</v>
+      <c r="B25">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4392,215 +5003,211 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.196</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.112</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.074</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.042</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.042</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.041</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.033</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.011</v>
+      <c r="B25">
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4609,215 +5216,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.101</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.101</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.101</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.096</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.077</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.066</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.033</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.007</v>
+      <c r="B25">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4826,215 +5429,211 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.155</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.053</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.052</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.032</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.022</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.006</v>
+      <c r="B25">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5043,215 +5642,211 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.074</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.037</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.033</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.005</v>
+      <c r="B25">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5260,215 +5855,211 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N40" activeCellId="0" sqref="N40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.055</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.055</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.051</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.047</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.042</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.038</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.004</v>
+      <c r="B25">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5477,215 +6068,211 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.111</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.106</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.093</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.086</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.063</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.062</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.043</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.006</v>
+      <c r="B25">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5694,215 +6281,211 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.099</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.097</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.086</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.073</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.062</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.043</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.042</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.041</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.008</v>
+      <c r="B25">
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5911,215 +6494,211 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.122</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.122</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.085</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.081</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.064</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.061</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.022</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>0.02</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.006</v>
+      <c r="B25">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -6128,215 +6707,211 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.091</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.054</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.052</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.052</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.043</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.043</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.042</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.032</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.032</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.023</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.009</v>
+      <c r="B25">
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
